--- a/Docs/UI Validation Test.xlsx
+++ b/Docs/UI Validation Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Module</t>
   </si>
@@ -45,12 +45,6 @@
     <t>MainScreen</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>MyAccount</t>
   </si>
   <si>
@@ -63,13 +57,28 @@
     <t>Add User</t>
   </si>
   <si>
-    <t>Student Materials</t>
-  </si>
-  <si>
-    <t>Add Student</t>
-  </si>
-  <si>
-    <t>Student Details</t>
+    <t>icon for adduser is nedeed</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>New form nedded to add new user</t>
+  </si>
+  <si>
+    <t>There is no fields for adding time teble details of this user</t>
+  </si>
+  <si>
+    <t>datetime validation not set</t>
+  </si>
+  <si>
+    <t>the displayed name not displayed correctly if it was in English</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -149,6 +158,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,74 +503,132 @@
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41675</v>
+      </c>
+      <c r="G2" s="5">
+        <v>41675</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>41680</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41680</v>
+      </c>
+      <c r="H3" s="5">
+        <v>41680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41680</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41682</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
+      <c r="F5" s="4">
+        <v>41682</v>
+      </c>
+      <c r="G5" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H5" s="5">
+        <v>41683</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41682</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H6" s="5">
+        <v>41682</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/UI Validation Test.xlsx
+++ b/Docs/UI Validation Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Module</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Closure date</t>
   </si>
   <si>
-    <t>MainScreen</t>
-  </si>
-  <si>
     <t>MyAccount</t>
   </si>
   <si>
@@ -57,28 +54,40 @@
     <t>Add User</t>
   </si>
   <si>
-    <t>icon for adduser is nedeed</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
     <t>bug</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>New form nedded to add new user</t>
   </si>
   <si>
-    <t>There is no fields for adding time teble details of this user</t>
-  </si>
-  <si>
-    <t>datetime validation not set</t>
-  </si>
-  <si>
     <t>the displayed name not displayed correctly if it was in English</t>
+  </si>
+  <si>
+    <t>DateTime validation not set</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Main Screen</t>
+  </si>
+  <si>
+    <t>The AddUser icon not clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no Icon for Call Form Page </t>
+  </si>
+  <si>
+    <t>There is no way to add Material Time Tables</t>
+  </si>
+  <si>
+    <t>Add Student</t>
+  </si>
+  <si>
+    <t>Email validtion not set correctly</t>
   </si>
 </sst>
 </file>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,21 +510,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4">
         <v>41675</v>
@@ -529,97 +538,94 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="4">
+        <v>41696</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41696</v>
+      </c>
+      <c r="H3" s="5">
+        <v>41696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41696</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41696</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41680</v>
+      </c>
+      <c r="G5" s="5">
+        <v>41680</v>
+      </c>
+      <c r="H5" s="5">
+        <v>41680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4">
-        <v>41680</v>
-      </c>
-      <c r="G3" s="5">
-        <v>41680</v>
-      </c>
-      <c r="H3" s="5">
-        <v>41680</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4">
-        <v>41680</v>
-      </c>
-      <c r="G4" s="5">
-        <v>41682</v>
-      </c>
-      <c r="H4" s="5">
-        <v>41682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4">
-        <v>41682</v>
-      </c>
-      <c r="G5" s="5">
-        <v>41682</v>
-      </c>
-      <c r="H5" s="5">
-        <v>41683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4">
         <v>41682</v>
@@ -628,7 +634,59 @@
         <v>41682</v>
       </c>
       <c r="H6" s="5">
-        <v>41682</v>
+        <v>41683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41696</v>
+      </c>
+      <c r="G7" s="5">
+        <v>41696</v>
+      </c>
+      <c r="H7" s="5">
+        <v>41696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41696</v>
+      </c>
+      <c r="G8" s="5">
+        <v>41697</v>
+      </c>
+      <c r="H8" s="5">
+        <v>41697</v>
       </c>
     </row>
   </sheetData>
